--- a/design/Enum.Object.xlsx
+++ b/design/Enum.Object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BDAD0-171B-4B98-9621-02F9769909DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F538B1-3CF6-42F7-B817-6682BDCA09FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>엔피씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,6 +452,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/Enum.Object.xlsx
+++ b/design/Enum.Object.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F538B1-3CF6-42F7-B817-6682BDCA09FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7E2E2-501D-4CFD-8D00-DF49FC5F49C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectType" sheetId="3" r:id="rId1"/>
@@ -420,43 +420,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
